--- a/assets/design/WRLDC Database.xlsx
+++ b/assets/design/WRLDC Database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" firstSheet="9" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="BAY" sheetId="1" r:id="rId1"/>
@@ -27,13 +27,17 @@
     <sheet name="Compensator" sheetId="13" r:id="rId13"/>
     <sheet name="Filter Bank" sheetId="14" r:id="rId14"/>
     <sheet name="Sub Filter Bank" sheetId="15" r:id="rId15"/>
+    <sheet name="measurements" sheetId="16" r:id="rId16"/>
+    <sheet name="metric" sheetId="18" r:id="rId17"/>
+    <sheet name="datasource" sheetId="19" r:id="rId18"/>
+    <sheet name="measurement_data" sheetId="17" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="379">
   <si>
     <t>Sr No.</t>
   </si>
@@ -1095,13 +1099,88 @@
   </si>
   <si>
     <t>HAC Q13 TYPE-E BIPOLE-1</t>
+  </si>
+  <si>
+    <t>MeasId</t>
+  </si>
+  <si>
+    <t>SCADA</t>
+  </si>
+  <si>
+    <t>id1</t>
+  </si>
+  <si>
+    <t>id2</t>
+  </si>
+  <si>
+    <t>REMC</t>
+  </si>
+  <si>
+    <t>id3</t>
+  </si>
+  <si>
+    <t>id4</t>
+  </si>
+  <si>
+    <t>entity ID</t>
+  </si>
+  <si>
+    <t>measid</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>quality (Enum)</t>
+  </si>
+  <si>
+    <t>value (double)</t>
+  </si>
+  <si>
+    <t>GOOD</t>
+  </si>
+  <si>
+    <t>metric id</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>power flow</t>
+  </si>
+  <si>
+    <t>voltage</t>
+  </si>
+  <si>
+    <t>KV</t>
+  </si>
+  <si>
+    <t>reactance</t>
+  </si>
+  <si>
+    <t>datasource id</t>
+  </si>
+  <si>
+    <t>URTDSM</t>
+  </si>
+  <si>
+    <t>historian measurement ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1135,6 +1214,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1175,7 +1262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1205,6 +1292,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4224,6 +4314,271 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18">
+        <v>1234</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18">
+        <v>1234</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18">
+        <v>1234</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18">
+        <v>1234</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>360</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19">
+        <f ca="1">NOW()</f>
+        <v>45849.538948726855</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="D2" s="18">
+        <v>13234.54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -10562,7 +10917,7 @@
   </sheetPr>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
